--- a/protocols/data/Emdal2015SciSignal.xlsx
+++ b/protocols/data/Emdal2015SciSignal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristinahanspers/Dropbox (Gladstone)/Work/github/cytoscape-tutorials/protocols/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19E5F0B-A1A2-4749-9405-CC53276F1F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="340" windowWidth="27560" windowHeight="13840"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="27560" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactome" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,9 +30,6 @@
     <t>Peptides</t>
   </si>
   <si>
-    <t>Sequence coverage [%]</t>
-  </si>
-  <si>
     <t>GAREML</t>
   </si>
   <si>
@@ -517,12 +520,15 @@
   </si>
   <si>
     <t>10 min log ratio</t>
+  </si>
+  <si>
+    <t>Sequence coverage percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,6 +541,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -557,10 +564,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -572,6 +581,7 @@
       <b/>
       <sz val="10"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -665,6 +675,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -956,64 +969,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -1042,12 +1055,12 @@
         <v>3.1106444881417312</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>21</v>
@@ -1076,12 +1089,12 @@
         <v>2.9101006704362886</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1110,12 +1123,12 @@
         <v>3.1615078014440665</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -1144,12 +1157,12 @@
         <v>2.8207997259109097</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -1178,12 +1191,12 @@
         <v>2.7041914820174555</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -1212,12 +1225,12 @@
         <v>2.5181497435563989</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>21</v>
@@ -1246,12 +1259,12 @@
         <v>2.5861734899265225</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>17</v>
@@ -1280,12 +1293,12 @@
         <v>2.3105522659069808</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>35</v>
@@ -1314,12 +1327,12 @@
         <v>2.3087402070438281</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>34</v>
@@ -1348,12 +1361,12 @@
         <v>1.5555531430979803</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
@@ -1382,12 +1395,12 @@
         <v>2.4328200204188057</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>21</v>
@@ -1416,12 +1429,12 @@
         <v>2.2449112130123607</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>35</v>
@@ -1450,12 +1463,12 @@
         <v>2.2209504472926636</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -1484,12 +1497,12 @@
         <v>2.238638113001663</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
@@ -1518,12 +1531,12 @@
         <v>2.1282424541871627</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1552,12 +1565,12 @@
         <v>5.848394326029239</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -1586,12 +1599,12 @@
         <v>1.7944163136156353</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
@@ -1620,12 +1633,12 @@
         <v>1.3292774977522681</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1654,12 +1667,12 @@
         <v>2.2339049335944967</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -1688,12 +1701,12 @@
         <v>1.3831995515901583</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>14</v>
@@ -1722,12 +1735,12 @@
         <v>1.659990007056144</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>29</v>
@@ -1756,12 +1769,12 @@
         <v>1.2642623549228158</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>12</v>
@@ -1790,12 +1803,12 @@
         <v>1.0829950385434672</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -1824,12 +1837,12 @@
         <v>1.2678155467365442</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>23</v>
@@ -1858,12 +1871,12 @@
         <v>0.8844296990974484</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>16</v>
@@ -1892,12 +1905,12 @@
         <v>0.99759265061045932</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>16</v>
@@ -1926,12 +1939,12 @@
         <v>1.1031527368709921</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>22</v>
@@ -1960,12 +1973,12 @@
         <v>1.0159011767199251</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>24</v>
@@ -1994,12 +2007,12 @@
         <v>0.29905439987719196</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -2028,12 +2041,12 @@
         <v>0.42716895792815146</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2062,12 +2075,12 @@
         <v>1.0772610654023949</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>17</v>
@@ -2096,12 +2109,12 @@
         <v>1.0164087912218041</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>12</v>
@@ -2130,12 +2143,12 @@
         <v>1.0591346881771384</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>27</v>
@@ -2164,12 +2177,12 @@
         <v>0.75975148184473251</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>25</v>
@@ -2198,12 +2211,12 @@
         <v>0.94156470151829363</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>12</v>
@@ -2232,12 +2245,12 @@
         <v>0.97116144684890915</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>9</v>
@@ -2266,12 +2279,12 @@
         <v>0.78059744888573723</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>15</v>
@@ -2300,12 +2313,12 @@
         <v>0.82956086193271183</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
@@ -2334,12 +2347,12 @@
         <v>0.77974539029658896</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>20</v>
@@ -2368,12 +2381,12 @@
         <v>0.81768213469721551</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -2402,12 +2415,12 @@
         <v>1.3163513752754907</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>21</v>
@@ -2436,12 +2449,12 @@
         <v>0.87954049948604274</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
         <v>22</v>
@@ -2470,12 +2483,12 @@
         <v>0.85149544284359724</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>26</v>
@@ -2504,12 +2517,12 @@
         <v>0.85643627884456563</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -2538,12 +2551,12 @@
         <v>3.1101415380482278</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -2572,12 +2585,12 @@
         <v>-1.4593957895368519</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>11</v>
@@ -2606,12 +2619,12 @@
         <v>-1.9662226597479424</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -2640,12 +2653,12 @@
         <v>-3.372399672576134</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>23</v>
@@ -2674,12 +2687,12 @@
         <v>-2.1845563022970058</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
         <v>17</v>
@@ -2708,12 +2721,12 @@
         <v>-1.8643865804717352</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
         <v>16</v>
@@ -2742,12 +2755,12 @@
         <v>-1.3939454546548906</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -2776,12 +2789,12 @@
         <v>-1.8164323528831861</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
@@ -2810,12 +2823,12 @@
         <v>-3.3257417949772181</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
         <v>11</v>
@@ -2844,12 +2857,12 @@
         <v>-1.3895828608778682</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
         <v>62</v>
@@ -2878,12 +2891,12 @@
         <v>-2.2694859274280033</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
         <v>7</v>
@@ -2912,12 +2925,12 @@
         <v>-3.5800913412269377</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
         <v>14</v>
@@ -2946,12 +2959,12 @@
         <v>-2.9753409773258501</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
@@ -2980,12 +2993,12 @@
         <v>-2.6597325789598969</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1">
         <v>37</v>
@@ -3014,12 +3027,12 @@
         <v>-2.3948894531831928</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3048,12 +3061,12 @@
         <v>-4.1166968771823926</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1">
         <v>7</v>
@@ -3082,12 +3095,12 @@
         <v>-3.6804379545917598</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1">
         <v>8</v>
@@ -3116,12 +3129,12 @@
         <v>-2.3306279603078437</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1">
         <v>7</v>
@@ -3150,12 +3163,12 @@
         <v>-2.5732657337752372</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
@@ -3184,12 +3197,12 @@
         <v>-2.8839109207861258</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -3218,12 +3231,12 @@
         <v>-3.7979628902938147</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3252,12 +3265,12 @@
         <v>-4.1674317064039723</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -3286,12 +3299,12 @@
         <v>-0.49903374657462268</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -3320,12 +3333,12 @@
         <v>-0.78085186236239212</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -3354,12 +3367,12 @@
         <v>-0.3444357316103307</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1">
         <v>67</v>
@@ -3388,12 +3401,12 @@
         <v>-0.81101335458700352</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1">
         <v>81</v>
@@ -3422,12 +3435,12 @@
         <v>-0.82499694332459572</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="1">
         <v>5</v>
@@ -3456,12 +3469,12 @@
         <v>-0.50822460026382021</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -3490,12 +3503,12 @@
         <v>-1.4276227597266615</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -3524,12 +3537,12 @@
         <v>-1.1939489305580184</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1">
         <v>17</v>
@@ -3558,12 +3571,12 @@
         <v>-1.0073725426710556</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1">
         <v>6</v>
@@ -3592,12 +3605,12 @@
         <v>-0.90828875252462693</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
@@ -3626,12 +3639,12 @@
         <v>-0.9042156552501901</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1">
         <v>15</v>
